--- a/wine2.xlsx
+++ b/wine2.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -646,6 +646,9 @@
     <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="1048576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
